--- a/tracking_results.xlsx
+++ b/tracking_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ECO 1221589674190003317800273943286926</t>
+          <t>ECO1221589674190003317800273943286926</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -500,7 +500,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ECO 1ZG2C823YW21934816</t>
+          <t>ECO1ZG2C823YW21934816</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ECO 1ZH48K011216150975</t>
+          <t>ECO1ZH48K011216150975</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -564,7 +564,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ECO 1ZH8G1320326733075</t>
+          <t>ECO1ZH8G1320326733075</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ECO 92001903281679064779860923</t>
+          <t>ECO92001903281679064779860923</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ECO 9214490347678765595249</t>
+          <t>ECO9214490347678765595249</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -660,7 +660,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ECO 9235990352020028946815</t>
+          <t>ECO9235990352020028946815</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -692,7 +692,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ECO 9235990352020117501246</t>
+          <t>ECO9235990352020117501246</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ECO 9235990352020119146636</t>
+          <t>ECO9235990352020119146636</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -756,7 +756,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ECO 9235990352020320051002</t>
+          <t>ECO9235990352020320051002</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -788,7 +788,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ECO 92395903032501055150121144</t>
+          <t>ECO92395903032501055150121144</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ECO 9262690352020410590230</t>
+          <t>ECO9262690352020410590230</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -852,7 +852,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ECO 9262690352020410601622</t>
+          <t>ECO9262690352020410601622</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -884,7 +884,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ECO 9262690352020410889167</t>
+          <t>ECO9262690352020410889167</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ECO 9262690352020412934964</t>
+          <t>ECO9262690352020412934964</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -948,7 +948,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ECO 9262690352020413856289</t>
+          <t>ECO9262690352020413856289</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -980,7 +980,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ECO 9262690352020414514928</t>
+          <t>ECO9262690352020414514928</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ECO 9262690352020414800212</t>
+          <t>ECO9262690352020414800212</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1044,7 +1044,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ECO 9262690352020415569859</t>
+          <t>ECO9262690352020415569859</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1076,7 +1076,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ECO 9262690352020415790376</t>
+          <t>ECO9262690352020415790376</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ECO 9361289677030699109568</t>
+          <t>ECO9361289677030699109568</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1140,7 +1140,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ECO 9361289677030803034106</t>
+          <t>ECO9361289677030803034106</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ECO 9400111206239550023670</t>
+          <t>ECO9400111206239550023670</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ECO 9400111206239550365275</t>
+          <t>ECO9400111206239550365275</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1236,7 +1236,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ECO 9405509105464101665371</t>
+          <t>ECO9405509105464101665371</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1268,7 +1268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ECO 9434609105464072058041</t>
+          <t>ECO9434609105464072058041</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ECO 9449016901643616604515</t>
+          <t>ECO9449016901643616604515</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1332,7 +1332,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ECO 9500112336814129158364</t>
+          <t>ECO9500112336814129158364</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ECO CNUSUP00000072428</t>
+          <t>ECOCNUSUP00000072428</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ECO CNUSUP00000075493</t>
+          <t>ECOCNUSUP00000075493</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ECO CNUSUP00000077457</t>
+          <t>ECOCNUSUP00000077457</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1460,7 +1460,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ECO CNUSUP00000078714</t>
+          <t>ECOCNUSUP00000078714</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ECO CNUSUP00000153931</t>
+          <t>ECOCNUSUP00000153931</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1524,27 +1524,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ECO D10015108508750</t>
+          <t>ECOCNUSUP00000351559</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/2/2024 6:09:00 AM</t>
+          <t>5/21/2024 8:36:00 AM</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5/2/2024 12:23:00 PM</t>
+          <t>5/21/2024 3:18:00 PM</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5/6/2024 9:26:00 AM</t>
+          <t>5/23/2024 9:51:00 AM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5/6/2024 1:34:00 PM</t>
+          <t>5/23/2024 3:26:00 PM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1556,27 +1556,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ECO D10015119802993</t>
+          <t>ECOD10015108508750</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/3/2024 3:35:00 PM</t>
+          <t>5/2/2024 6:09:00 AM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5/6/2024 9:18:00 AM</t>
+          <t>5/2/2024 12:23:00 PM</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5/8/2024 8:47:00 AM</t>
+          <t>5/6/2024 9:26:00 AM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5/8/2024 4:02:00 PM</t>
+          <t>5/6/2024 1:34:00 PM</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1588,17 +1588,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ECO D10015121413580</t>
+          <t>ECOD10015119802993</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/3/2024 3:34:00 PM</t>
+          <t>5/3/2024 3:35:00 PM</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5/6/2024 9:16:00 AM</t>
+          <t>5/6/2024 9:18:00 AM</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1620,27 +1620,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ECO D10015124222392</t>
+          <t>ECOD10015121413580</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/7/2024 7:49:00 AM</t>
+          <t>5/3/2024 3:34:00 PM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5/7/2024 4:40:00 PM</t>
+          <t>5/6/2024 9:16:00 AM</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5/9/2024 9:14:00 AM</t>
+          <t>5/8/2024 8:47:00 AM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5/9/2024 4:01:00 PM</t>
+          <t>5/8/2024 4:02:00 PM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1652,27 +1652,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ECO D10015150305469</t>
+          <t>ECOD10015124222392</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/15/2024 11:57:00 AM</t>
+          <t>5/7/2024 7:49:00 AM</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5/16/2024 9:17:00 AM</t>
+          <t>5/7/2024 4:40:00 PM</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5/20/2024 10:17:00 AM</t>
+          <t>5/9/2024 9:14:00 AM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5/21/2024 8:35:00 AM</t>
+          <t>5/9/2024 4:01:00 PM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1684,27 +1684,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ECO D10015152498965</t>
+          <t>ECOD10015150305469</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/14/2024 10:49:00 AM</t>
+          <t>5/15/2024 11:57:00 AM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5/15/2024 1:23:00 PM</t>
+          <t>5/16/2024 9:17:00 AM</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5/17/2024 9:41:00 AM</t>
+          <t>5/20/2024 10:17:00 AM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5/17/2024 2:20:00 PM</t>
+          <t>5/21/2024 8:35:00 AM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1716,27 +1716,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ECO SPX1EG056710577563</t>
+          <t>ECOD10015152498965</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/7/2024 7:48:00 AM</t>
+          <t>5/14/2024 10:49:00 AM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5/7/2024 4:42:00 PM</t>
+          <t>5/15/2024 1:23:00 PM</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5/9/2024 9:14:00 AM</t>
+          <t>5/17/2024 9:41:00 AM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5/9/2024 4:01:00 PM</t>
+          <t>5/17/2024 2:20:00 PM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1748,17 +1748,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ECO SPX1EG056710605609</t>
+          <t>ECOSPX1EG056710577563</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/7/2024 7:47:00 AM</t>
+          <t>5/7/2024 7:48:00 AM</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>5/7/2024 4:41:00 PM</t>
+          <t>5/7/2024 4:42:00 PM</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1780,27 +1780,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ECO TBA312712213146</t>
+          <t>ECOSPX1EG056710605609</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4/22/2024 8:29:00 AM</t>
+          <t>5/7/2024 7:47:00 AM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4/22/2024 1:01:00 PM</t>
+          <t>5/7/2024 4:41:00 PM</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4/24/2024 8:53:00 AM</t>
+          <t>5/9/2024 9:14:00 AM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4/24/2024 5:44:00 PM</t>
+          <t>5/9/2024 4:01:00 PM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1812,27 +1812,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ECO TBA312912937355</t>
+          <t>ECOTBA312712213146</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/2/2024 8:28:00 AM</t>
+          <t>4/22/2024 8:29:00 AM</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5/2/2024 1:52:00 PM</t>
+          <t>4/22/2024 1:01:00 PM</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5/6/2024 9:26:00 AM</t>
+          <t>4/24/2024 8:53:00 AM</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5/6/2024 1:34:00 PM</t>
+          <t>4/24/2024 5:44:00 PM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1844,27 +1844,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ECO TBA312932694643</t>
+          <t>ECOTBA312912937355</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/7/2024 7:45:00 AM</t>
+          <t>5/2/2024 8:28:00 AM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5/7/2024 4:35:00 PM</t>
+          <t>5/2/2024 1:52:00 PM</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5/9/2024 9:14:00 AM</t>
+          <t>5/6/2024 9:26:00 AM</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5/9/2024 4:01:00 PM</t>
+          <t>5/6/2024 1:34:00 PM</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1876,22 +1876,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ECO TBA312933441346</t>
+          <t>ECOTBA312932694643</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/3/2024 4:53:00 PM</t>
+          <t>5/7/2024 7:45:00 AM</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>5/7/2024 8:08:00 AM</t>
+          <t>5/7/2024 4:35:00 PM</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5/9/2024 1:25:00 PM</t>
+          <t>5/9/2024 9:14:00 AM</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1908,27 +1908,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ECO TBA312945890366</t>
+          <t>ECOTBA312933441346</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5/8/2024 7:40:00 AM</t>
+          <t>5/3/2024 4:53:00 PM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5/9/2024 7:51:00 AM</t>
+          <t>5/7/2024 8:08:00 AM</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5/13/2024 9:31:00 AM</t>
+          <t>5/9/2024 1:25:00 PM</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5/13/2024 4:51:00 PM</t>
+          <t>5/9/2024 4:01:00 PM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1940,27 +1940,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ECO TBA312958516817</t>
+          <t>ECOTBA312945890366</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5/3/2024 3:35:00 PM</t>
+          <t>5/8/2024 7:40:00 AM</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5/6/2024 9:19:00 AM</t>
+          <t>5/9/2024 7:51:00 AM</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5/8/2024 8:47:00 AM</t>
+          <t>5/13/2024 9:31:00 AM</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5/8/2024 4:02:00 PM</t>
+          <t>5/13/2024 4:51:00 PM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1972,27 +1972,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ECO TBA312979153058</t>
+          <t>ECOTBA312958516817</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/7/2024 7:42:00 AM</t>
+          <t>5/3/2024 3:35:00 PM</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5/7/2024 4:38:00 PM</t>
+          <t>5/6/2024 9:19:00 AM</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5/9/2024 9:14:00 AM</t>
+          <t>5/8/2024 8:47:00 AM</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5/9/2024 4:01:00 PM</t>
+          <t>5/8/2024 4:02:00 PM</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2004,17 +2004,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ECO TBA312988185642</t>
+          <t>ECOTBA312979153058</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/7/2024 7:45:00 AM</t>
+          <t>5/7/2024 7:42:00 AM</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>5/7/2024 4:35:00 PM</t>
+          <t>5/7/2024 4:38:00 PM</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2036,27 +2036,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ECO TBA312988752924</t>
+          <t>ECOTBA312988185642</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/8/2024 7:08:00 AM</t>
+          <t>5/7/2024 7:45:00 AM</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5/8/2024 3:47:00 PM</t>
+          <t>5/7/2024 4:35:00 PM</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5/13/2024 12:24:00 PM</t>
+          <t>5/9/2024 9:14:00 AM</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5/13/2024 4:51:00 PM</t>
+          <t>5/9/2024 4:01:00 PM</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2068,27 +2068,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ECO TBA313017309748</t>
+          <t>ECOTBA312988752924</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/10/2024 1:52:00 PM</t>
+          <t>5/8/2024 7:08:00 AM</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>5/10/2024 1:52:00 PM</t>
+          <t>5/8/2024 3:47:00 PM</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5/14/2024 11:42:00 AM</t>
+          <t>5/13/2024 12:24:00 PM</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5/14/2024 2:30:00 PM</t>
+          <t>5/13/2024 4:51:00 PM</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2100,27 +2100,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ECO TBA313028677399</t>
+          <t>ECOTBA313017309748</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5/8/2024 7:45:00 AM</t>
+          <t>5/10/2024 1:52:00 PM</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>5/9/2024 7:34:00 AM</t>
+          <t>5/10/2024 1:52:00 PM</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5/13/2024 12:24:00 PM</t>
+          <t>5/14/2024 11:42:00 AM</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5/13/2024 4:51:00 PM</t>
+          <t>5/14/2024 2:30:00 PM</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2132,22 +2132,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ECO TBA313029965814</t>
+          <t>ECOTBA313028677399</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5/8/2024 1:16:00 PM</t>
+          <t>5/8/2024 7:45:00 AM</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>5/9/2024 2:36:00 PM</t>
+          <t>5/9/2024 7:34:00 AM</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5/13/2024 9:31:00 AM</t>
+          <t>5/13/2024 12:24:00 PM</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2164,17 +2164,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ECO TBA313033767067</t>
+          <t>ECOTBA313029965814</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5/8/2024 1:12:00 PM</t>
+          <t>5/8/2024 1:16:00 PM</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>5/9/2024 2:38:00 PM</t>
+          <t>5/9/2024 2:36:00 PM</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2196,7 +2196,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ECO TBA313034653342</t>
+          <t>ECOTBA313033767067</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>5/9/2024 2:34:00 PM</t>
+          <t>5/9/2024 2:38:00 PM</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2228,17 +2228,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ECO TBA313039081542</t>
+          <t>ECOTBA313034653342</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5/8/2024 1:15:00 PM</t>
+          <t>5/8/2024 1:12:00 PM</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>5/9/2024 2:38:00 PM</t>
+          <t>5/9/2024 2:34:00 PM</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2260,17 +2260,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ECO TBA313041083901</t>
+          <t>ECOTBA313039081542</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5/8/2024 1:13:00 PM</t>
+          <t>5/8/2024 1:15:00 PM</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>5/9/2024 2:33:00 PM</t>
+          <t>5/9/2024 2:38:00 PM</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2292,27 +2292,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ECO TBA313072106476</t>
+          <t>ECOTBA313041083901</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5/13/2024 2:12:00 PM</t>
+          <t>5/8/2024 1:13:00 PM</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5/13/2024 2:52:00 PM</t>
+          <t>5/9/2024 2:33:00 PM</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5/15/2024 11:20:00 AM</t>
+          <t>5/13/2024 9:31:00 AM</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5/15/2024 2:35:00 PM</t>
+          <t>5/13/2024 4:51:00 PM</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2324,27 +2324,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ECO TBA313104707244</t>
+          <t>ECOTBA313072106476</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5/15/2024 7:53:00 AM</t>
+          <t>5/13/2024 2:12:00 PM</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>5/15/2024 12:06:00 PM</t>
+          <t>5/13/2024 2:52:00 PM</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5/17/2024 9:41:00 AM</t>
+          <t>5/15/2024 11:20:00 AM</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5/17/2024 2:20:00 PM</t>
+          <t>5/15/2024 2:35:00 PM</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2356,27 +2356,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ECO TBA313112398196</t>
+          <t>ECOTBA313104707244</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5/16/2024 7:47:00 AM</t>
+          <t>5/15/2024 7:53:00 AM</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>5/16/2024 11:29:00 AM</t>
+          <t>5/15/2024 12:06:00 PM</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5/20/2024 11:43:00 AM</t>
+          <t>5/17/2024 9:41:00 AM</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5/21/2024 8:35:00 AM</t>
+          <t>5/17/2024 2:20:00 PM</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2388,27 +2388,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ECO TBA313117920171</t>
+          <t>ECOTBA313112398196</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5/13/2024 2:11:00 PM</t>
+          <t>5/16/2024 7:47:00 AM</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>5/13/2024 2:54:00 PM</t>
+          <t>5/16/2024 11:29:00 AM</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>5/15/2024 11:20:00 AM</t>
+          <t>5/20/2024 11:43:00 AM</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5/15/2024 2:35:00 PM</t>
+          <t>5/21/2024 8:35:00 AM</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2420,17 +2420,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ECO TBA313118515887</t>
+          <t>ECOTBA313117920171</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5/13/2024 2:17:00 PM</t>
+          <t>5/13/2024 2:11:00 PM</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5/13/2024 2:47:00 PM</t>
+          <t>5/13/2024 2:54:00 PM</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2452,27 +2452,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ECO TBA313119082646</t>
+          <t>ECOTBA313118515887</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5/14/2024 6:28:00 AM</t>
+          <t>5/13/2024 2:17:00 PM</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>5/14/2024 1:35:00 PM</t>
+          <t>5/13/2024 2:47:00 PM</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>5/16/2024 8:56:00 AM</t>
+          <t>5/15/2024 11:20:00 AM</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5/16/2024 2:23:00 PM</t>
+          <t>5/15/2024 2:35:00 PM</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2484,27 +2484,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ECO TBA313119793988</t>
+          <t>ECOTBA313119082646</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5/13/2024 2:12:00 PM</t>
+          <t>5/14/2024 6:28:00 AM</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>5/13/2024 2:54:00 PM</t>
+          <t>5/14/2024 1:35:00 PM</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>5/15/2024 11:20:00 AM</t>
+          <t>5/16/2024 8:56:00 AM</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5/15/2024 2:35:00 PM</t>
+          <t>5/16/2024 2:23:00 PM</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2516,27 +2516,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ECO TBA313125430233</t>
+          <t>ECOTBA313119793988</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5/15/2024 12:22:00 PM</t>
+          <t>5/13/2024 2:12:00 PM</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>5/16/2024 8:20:00 AM</t>
+          <t>5/13/2024 2:54:00 PM</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5/20/2024 10:17:00 AM</t>
+          <t>5/15/2024 11:20:00 AM</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5/21/2024 8:35:00 AM</t>
+          <t>5/15/2024 2:35:00 PM</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2548,27 +2548,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ECO TBA313131004478</t>
+          <t>ECOTBA313125430233</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5/14/2024 10:46:00 AM</t>
+          <t>5/15/2024 12:22:00 PM</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5/15/2024 1:32:00 PM</t>
+          <t>5/16/2024 8:20:00 AM</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5/17/2024 9:41:00 AM</t>
+          <t>5/20/2024 10:17:00 AM</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5/17/2024 2:20:00 PM</t>
+          <t>5/21/2024 8:35:00 AM</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2580,22 +2580,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ECO TBA313132906355</t>
+          <t>ECOTBA313131004478</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5/15/2024 7:49:00 AM</t>
+          <t>5/14/2024 10:46:00 AM</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>5/15/2024 10:33:00 AM</t>
+          <t>5/15/2024 1:32:00 PM</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5/17/2024 10:48:00 AM</t>
+          <t>5/17/2024 9:41:00 AM</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2612,22 +2612,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ECO TBA313133191849</t>
+          <t>ECOTBA313132906355</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5/15/2024 7:53:00 AM</t>
+          <t>5/15/2024 7:49:00 AM</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>5/15/2024 10:57:00 AM</t>
+          <t>5/15/2024 10:33:00 AM</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>5/17/2024 9:41:00 AM</t>
+          <t>5/17/2024 10:48:00 AM</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2644,27 +2644,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ECO TBA313133710853</t>
+          <t>ECOTBA313133191849</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5/15/2024 7:55:00 AM</t>
+          <t>5/15/2024 7:53:00 AM</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>5/16/2024 7:54:00 AM</t>
+          <t>5/15/2024 10:57:00 AM</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5/20/2024 10:17:00 AM</t>
+          <t>5/17/2024 9:41:00 AM</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>5/21/2024 8:35:00 AM</t>
+          <t>5/17/2024 2:20:00 PM</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2676,22 +2676,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ECO TBA313143412116</t>
+          <t>ECOTBA313133710853</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5/16/2024 8:41:00 AM</t>
+          <t>5/15/2024 7:55:00 AM</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>5/16/2024 9:25:00 AM</t>
+          <t>5/16/2024 7:54:00 AM</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>5/20/2024 11:43:00 AM</t>
+          <t>5/20/2024 10:17:00 AM</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2708,22 +2708,22 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ECO TBA313148928604</t>
+          <t>ECOTBA313143412116</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5/15/2024 11:50:00 AM</t>
+          <t>5/16/2024 8:41:00 AM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>5/16/2024 9:16:00 AM</t>
+          <t>5/16/2024 9:25:00 AM</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>5/20/2024 10:17:00 AM</t>
+          <t>5/20/2024 11:43:00 AM</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2740,17 +2740,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ECO TBA313161941403</t>
+          <t>ECOTBA313148928604</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5/15/2024 12:01:00 PM</t>
+          <t>5/15/2024 11:50:00 AM</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>5/16/2024 9:08:00 AM</t>
+          <t>5/16/2024 9:16:00 AM</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2772,17 +2772,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ECO TBA313162361947</t>
+          <t>ECOTBA313161941403</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5/16/2024 8:40:00 AM</t>
+          <t>5/15/2024 12:01:00 PM</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>5/16/2024 9:28:00 AM</t>
+          <t>5/16/2024 9:08:00 AM</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2804,7 +2804,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ECO TBA313164054776</t>
+          <t>ECOTBA313162361947</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2814,12 +2814,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>5/16/2024 9:26:00 AM</t>
+          <t>5/16/2024 9:28:00 AM</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>5/20/2024 11:43:00 AM</t>
+          <t>5/20/2024 10:17:00 AM</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2836,22 +2836,22 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ECO TBA313164740711</t>
+          <t>ECOTBA313164054776</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5/15/2024 12:44:00 PM</t>
+          <t>5/16/2024 8:40:00 AM</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>5/16/2024 8:31:00 AM</t>
+          <t>5/16/2024 9:26:00 AM</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>5/20/2024 10:17:00 AM</t>
+          <t>5/20/2024 11:43:00 AM</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2868,17 +2868,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ECO TBA313172643294</t>
+          <t>ECOTBA313164740711</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5/16/2024 8:41:00 AM</t>
+          <t>5/15/2024 12:44:00 PM</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>5/16/2024 9:21:00 AM</t>
+          <t>5/16/2024 8:31:00 AM</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2900,27 +2900,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ECO TBA313190262114</t>
+          <t>ECOTBA313165445866</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5/21/2024 8:29:00 AM</t>
+          <t>5/17/2024 8:07:00 AM</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>5/21/2024 3:29:00 PM</t>
+          <t>5/17/2024 12:45:00 PM</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5/23/2024 9:51:00 AM</t>
+          <t>5/21/2024 9:42:00 AM</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>5/23/2024 3:26:00 PM</t>
+          <t>5/21/2024 5:27:00 PM</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2932,27 +2932,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ECO TBA313237570675</t>
+          <t>ECOTBA313172643294</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>5/21/2024 8:38:00 AM</t>
+          <t>5/16/2024 8:41:00 AM</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>5/21/2024 3:21:00 PM</t>
+          <t>5/16/2024 9:21:00 AM</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>5/23/2024 9:51:00 AM</t>
+          <t>5/20/2024 10:17:00 AM</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>5/23/2024 3:26:00 PM</t>
+          <t>5/21/2024 8:35:00 AM</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2964,17 +2964,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ECO TBA313247712261</t>
+          <t>ECOTBA313176853531</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>5/21/2024 9:55:00 AM</t>
+          <t>5/21/2024 11:04:00 AM</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>5/21/2024 4:47:00 PM</t>
+          <t>5/22/2024 6:19:00 AM</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2996,27 +2996,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ECO UUS0462519483284</t>
+          <t>ECOTBA313177035475</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>5/1/2024 5:58:00 PM</t>
+          <t>5/20/2024 7:38:00 AM</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>5/2/2024 12:20:00 PM</t>
+          <t>5/20/2024 2:22:00 PM</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>5/6/2024 9:26:00 AM</t>
+          <t>5/22/2024 9:48:00 AM</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>5/6/2024 1:34:00 PM</t>
+          <t>5/22/2024 2:20:00 PM</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3028,27 +3028,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ECO UUSC000001280008</t>
+          <t>ECOTBA313180185590</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>5/2/2024 8:34:00 AM</t>
+          <t>5/21/2024 9:59:00 AM</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>5/2/2024 2:08:00 PM</t>
+          <t>5/22/2024 6:15:00 AM</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>5/6/2024 12:39:00 PM</t>
+          <t>5/23/2024 9:51:00 AM</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>5/6/2024 1:34:00 PM</t>
+          <t>5/23/2024 3:26:00 PM</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3060,27 +3060,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ECO UUSC000001280537</t>
+          <t>ECOTBA313190262114</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>4/30/2024 8:42:00 AM</t>
+          <t>5/21/2024 8:29:00 AM</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>4/30/2024 12:58:00 PM</t>
+          <t>5/21/2024 3:29:00 PM</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>5/2/2024 10:11:00 AM</t>
+          <t>5/23/2024 9:51:00 AM</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>5/2/2024 5:36:00 PM</t>
+          <t>5/23/2024 3:26:00 PM</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3092,30 +3092,414 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ECO UUSC000001378327</t>
+          <t>ECOTBA313190868508</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>5/17/2024 8:14:00 AM</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>5/17/2024 1:48:00 PM</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5/21/2024 9:42:00 AM</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>5/21/2024 5:27:00 PM</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ECOTBA313203306875</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>5/21/2024 8:30:00 AM</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>5/21/2024 3:21:00 PM</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5/23/2024 9:51:00 AM</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>5/23/2024 3:26:00 PM</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ECOTBA313206234105</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>5/17/2024 8:07:00 AM</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>5/17/2024 12:43:00 PM</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5/21/2024 9:42:00 AM</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>5/21/2024 5:27:00 PM</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ECOTBA313210616249</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>5/20/2024 7:54:00 AM</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>5/21/2024 6:20:00 AM</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5/22/2024 9:48:00 AM</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>5/22/2024 2:20:00 PM</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ECOTBA313227645566</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>5/21/2024 8:29:00 AM</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>5/21/2024 3:28:00 PM</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5/23/2024 9:51:00 AM</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>5/23/2024 3:26:00 PM</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ECOTBA313229198011</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>5/21/2024 8:29:00 AM</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>5/21/2024 3:28:00 PM</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5/23/2024 9:51:00 AM</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>5/23/2024 3:26:00 PM</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ECOTBA313236905286</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>5/21/2024 8:37:00 AM</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>5/21/2024 3:17:00 PM</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5/23/2024 9:51:00 AM</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>5/23/2024 3:26:00 PM</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ECOTBA313237570675</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>5/21/2024 8:38:00 AM</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>5/21/2024 3:21:00 PM</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5/23/2024 9:51:00 AM</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>5/23/2024 3:26:00 PM</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ECOTBA313247712261</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>5/21/2024 9:55:00 AM</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>5/21/2024 4:47:00 PM</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5/23/2024 9:51:00 AM</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>5/23/2024 3:26:00 PM</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ECOUUS0462519483284</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>5/1/2024 5:58:00 PM</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5/2/2024 12:20:00 PM</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5/6/2024 9:26:00 AM</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>5/6/2024 1:34:00 PM</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ECOUUSC000001280008</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>5/2/2024 8:34:00 AM</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>5/2/2024 2:08:00 PM</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5/6/2024 12:39:00 PM</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>5/6/2024 1:34:00 PM</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ECOUUSC000001280537</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>4/30/2024 8:42:00 AM</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>4/30/2024 12:58:00 PM</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5/2/2024 10:11:00 AM</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>5/2/2024 5:36:00 PM</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ECOUUSC000001378327</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
           <t>5/8/2024 6:45:00 AM</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>5/8/2024 2:08:00 PM</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>5/10/2024 10:07:00 AM</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>5/10/2024 3:52:00 PM</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>Procesando en Costa Rica</t>
         </is>

--- a/tracking_results.xlsx
+++ b/tracking_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,27 +660,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ECO9235990352020028946815</t>
+          <t>ECO9214490347678772809506</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5/1/2024 5:58:00 PM</t>
+          <t>5/22/2024 8:03:00 AM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5/2/2024 12:20:00 PM</t>
+          <t>5/22/2024 4:42:00 PM</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5/6/2024 9:26:00 AM</t>
+          <t>5/24/2024 10:02:00 AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5/6/2024 1:34:00 PM</t>
+          <t>5/24/2024 4:36:00 PM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -692,27 +692,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ECO9235990352020117501246</t>
+          <t>ECO9214490352020123005198</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5/13/2024 2:19:00 PM</t>
+          <t>5/21/2024 8:34:00 AM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5/13/2024 2:49:00 PM</t>
+          <t>5/21/2024 3:22:00 PM</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5/15/2024 11:20:00 AM</t>
+          <t>5/23/2024 9:51:00 AM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5/15/2024 2:35:00 PM</t>
+          <t>5/23/2024 3:26:00 PM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -724,27 +724,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ECO9235990352020119146636</t>
+          <t>ECO9235990352020028946815</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5/14/2024 10:49:00 AM</t>
+          <t>5/1/2024 5:58:00 PM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5/15/2024 1:28:00 PM</t>
+          <t>5/2/2024 12:20:00 PM</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5/17/2024 9:41:00 AM</t>
+          <t>5/6/2024 9:26:00 AM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5/17/2024 2:20:00 PM</t>
+          <t>5/6/2024 1:34:00 PM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -756,27 +756,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ECO9235990352020320051002</t>
+          <t>ECO9235990352020115932905</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5/1/2024 5:59:00 PM</t>
+          <t>5/9/2024 10:36:00 AM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5/2/2024 12:31:00 PM</t>
+          <t>5/10/2024 2:28:00 PM</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5/6/2024 9:26:00 AM</t>
+          <t>5/14/2024 11:42:00 AM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5/6/2024 1:34:00 PM</t>
+          <t>5/14/2024 2:30:00 PM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -788,27 +788,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ECO92395903032501055150121144</t>
+          <t>ECO9235990352020117501246</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5/1/2024 5:58:00 PM</t>
+          <t>5/13/2024 2:19:00 PM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5/2/2024 12:22:00 PM</t>
+          <t>5/13/2024 2:49:00 PM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5/6/2024 9:26:00 AM</t>
+          <t>5/15/2024 11:20:00 AM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5/6/2024 1:34:00 PM</t>
+          <t>5/15/2024 2:35:00 PM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -820,27 +820,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ECO9262690352020410590230</t>
+          <t>ECO9235990352020119146636</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4/22/2024 8:15:00 AM</t>
+          <t>5/14/2024 10:49:00 AM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4/22/2024 9:00:00 AM</t>
+          <t>5/15/2024 1:28:00 PM</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4/24/2024 8:53:00 AM</t>
+          <t>5/17/2024 9:41:00 AM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4/24/2024 5:44:00 PM</t>
+          <t>5/17/2024 2:20:00 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -852,27 +852,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ECO9262690352020410601622</t>
+          <t>ECO9235990352020124410869</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4/16/2024 2:35:00 PM</t>
+          <t>5/22/2024 8:04:00 AM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4/17/2024 11:45:00 AM</t>
+          <t>5/22/2024 4:42:00 PM</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4/19/2024 9:36:00 AM</t>
+          <t>5/24/2024 10:02:00 AM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4/19/2024 3:08:00 PM</t>
+          <t>5/24/2024 4:36:00 PM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -884,12 +884,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ECO9262690352020410889167</t>
+          <t>ECO9235990352020320051002</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5/2/2024 6:10:00 AM</t>
+          <t>5/1/2024 5:59:00 PM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -916,17 +916,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ECO9262690352020412934964</t>
+          <t>ECO92395903032501055150121144</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5/2/2024 6:09:00 AM</t>
+          <t>5/1/2024 5:58:00 PM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5/2/2024 12:23:00 PM</t>
+          <t>5/2/2024 12:22:00 PM</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -948,27 +948,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ECO9262690352020413856289</t>
+          <t>ECO9262690352020409029284</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5/2/2024 6:10:00 AM</t>
+          <t>4/8/2024 6:56:00 PM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5/2/2024 12:29:00 PM</t>
+          <t>4/9/2024 1:48:00 PM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5/6/2024 9:26:00 AM</t>
+          <t>4/11/2024 8:50:00 AM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5/6/2024 1:34:00 PM</t>
+          <t>4/11/2024 3:54:00 PM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -980,27 +980,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ECO9262690352020414514928</t>
+          <t>ECO9262690352020410590230</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5/7/2024 7:46:00 AM</t>
+          <t>4/22/2024 8:15:00 AM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5/7/2024 4:39:00 PM</t>
+          <t>4/22/2024 9:00:00 AM</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5/9/2024 9:14:00 AM</t>
+          <t>4/24/2024 8:53:00 AM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5/9/2024 4:01:00 PM</t>
+          <t>4/24/2024 5:44:00 PM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1012,27 +1012,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ECO9262690352020414800212</t>
+          <t>ECO9262690352020410601622</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5/9/2024 10:10:00 AM</t>
+          <t>4/16/2024 2:35:00 PM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5/10/2024 1:34:00 PM</t>
+          <t>4/17/2024 11:45:00 AM</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5/14/2024 11:42:00 AM</t>
+          <t>4/19/2024 9:36:00 AM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5/14/2024 2:30:00 PM</t>
+          <t>4/19/2024 3:08:00 PM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1044,27 +1044,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ECO9262690352020415569859</t>
+          <t>ECO9262690352020410889167</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5/13/2024 2:17:00 PM</t>
+          <t>5/2/2024 6:10:00 AM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5/13/2024 2:48:00 PM</t>
+          <t>5/2/2024 12:31:00 PM</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5/15/2024 11:20:00 AM</t>
+          <t>5/6/2024 9:26:00 AM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5/15/2024 2:35:00 PM</t>
+          <t>5/6/2024 1:34:00 PM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1076,27 +1076,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ECO9262690352020415790376</t>
+          <t>ECO9262690352020412934964</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5/14/2024 10:54:00 AM</t>
+          <t>5/2/2024 6:09:00 AM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5/15/2024 1:25:00 PM</t>
+          <t>5/2/2024 12:23:00 PM</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5/17/2024 9:41:00 AM</t>
+          <t>5/6/2024 9:26:00 AM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5/17/2024 2:20:00 PM</t>
+          <t>5/6/2024 1:34:00 PM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1108,27 +1108,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ECO9361289677030699109568</t>
+          <t>ECO9262690352020413856289</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5/13/2024 2:11:00 PM</t>
+          <t>5/2/2024 6:10:00 AM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5/14/2024 8:33:00 AM</t>
+          <t>5/2/2024 12:29:00 PM</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5/16/2024 8:56:00 AM</t>
+          <t>5/6/2024 9:26:00 AM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5/16/2024 2:23:00 PM</t>
+          <t>5/6/2024 1:34:00 PM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1140,27 +1140,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ECO9361289677030803034106</t>
+          <t>ECO9262690352020414514928</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5/15/2024 7:48:00 AM</t>
+          <t>5/7/2024 7:46:00 AM</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5/15/2024 10:26:00 AM</t>
+          <t>5/7/2024 4:39:00 PM</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5/17/2024 9:41:00 AM</t>
+          <t>5/9/2024 9:14:00 AM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5/17/2024 2:20:00 PM</t>
+          <t>5/9/2024 4:01:00 PM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1172,27 +1172,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ECO9400111206239550023670</t>
+          <t>ECO9262690352020414800212</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5/2/2024 8:29:00 AM</t>
+          <t>5/9/2024 10:10:00 AM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5/2/2024 2:05:00 PM</t>
+          <t>5/10/2024 1:34:00 PM</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5/6/2024 9:26:00 AM</t>
+          <t>5/14/2024 11:42:00 AM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5/6/2024 1:34:00 PM</t>
+          <t>5/14/2024 2:30:00 PM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1204,27 +1204,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ECO9400111206239550365275</t>
+          <t>ECO9262690352020415569859</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5/2/2024 8:29:00 AM</t>
+          <t>5/13/2024 2:17:00 PM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5/2/2024 2:03:00 PM</t>
+          <t>5/13/2024 2:48:00 PM</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5/6/2024 9:26:00 AM</t>
+          <t>5/15/2024 11:20:00 AM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5/6/2024 1:34:00 PM</t>
+          <t>5/15/2024 2:35:00 PM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1236,27 +1236,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ECO9405509105464101665371</t>
+          <t>ECO9262690352020415790376</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5/7/2024 7:42:00 AM</t>
+          <t>5/14/2024 10:54:00 AM</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5/7/2024 4:37:00 PM</t>
+          <t>5/15/2024 1:25:00 PM</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5/9/2024 9:14:00 AM</t>
+          <t>5/17/2024 9:41:00 AM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5/9/2024 4:01:00 PM</t>
+          <t>5/17/2024 2:20:00 PM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1268,27 +1268,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ECO9434609105464072058041</t>
+          <t>ECO9262690352020416984705</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5/2/2024 8:34:00 AM</t>
+          <t>5/21/2024 8:32:00 AM</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5/2/2024 1:11:00 PM</t>
+          <t>5/21/2024 3:16:00 PM</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5/6/2024 9:26:00 AM</t>
+          <t>5/23/2024 9:51:00 AM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5/6/2024 1:34:00 PM</t>
+          <t>5/23/2024 3:26:00 PM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1300,27 +1300,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ECO9449016901643616604515</t>
+          <t>ECO9262690352020417002859</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5/2/2024 6:08:00 AM</t>
+          <t>5/21/2024 8:31:00 AM</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>5/2/2024 12:31:00 PM</t>
+          <t>5/21/2024 3:29:00 PM</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5/6/2024 9:26:00 AM</t>
+          <t>5/23/2024 9:51:00 AM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5/6/2024 1:34:00 PM</t>
+          <t>5/23/2024 3:26:00 PM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1332,27 +1332,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ECO9500112336814129158364</t>
+          <t>ECO9262690352020417222028</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5/14/2024 10:48:00 AM</t>
+          <t>5/23/2024 1:30:00 PM</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>5/16/2024 6:34:00 AM</t>
+          <t>5/24/2024 6:16:00 AM</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5/17/2024 9:41:00 AM</t>
+          <t>5/27/2024 10:17:00 AM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5/17/2024 2:20:00 PM</t>
+          <t>5/27/2024 2:40:00 PM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1364,27 +1364,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ECOCNUSUP00000072428</t>
+          <t>ECO9361289677030699109568</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5/2/2024 6:07:00 AM</t>
+          <t>5/13/2024 2:11:00 PM</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5/2/2024 12:33:00 PM</t>
+          <t>5/14/2024 8:33:00 AM</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5/6/2024 9:26:00 AM</t>
+          <t>5/16/2024 8:56:00 AM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5/6/2024 1:34:00 PM</t>
+          <t>5/16/2024 2:23:00 PM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1396,27 +1396,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ECOCNUSUP00000075493</t>
+          <t>ECO9361289677030803034106</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/3/2024 7:34:00 AM</t>
+          <t>5/15/2024 7:48:00 AM</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5/3/2024 1:46:00 PM</t>
+          <t>5/15/2024 10:26:00 AM</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5/7/2024 9:41:00 AM</t>
+          <t>5/17/2024 9:41:00 AM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5/8/2024 9:03:00 AM</t>
+          <t>5/17/2024 2:20:00 PM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1428,27 +1428,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ECOCNUSUP00000077457</t>
+          <t>ECO9400109105465097160908</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/3/2024 6:27:00 AM</t>
+          <t>5/21/2024 8:36:00 AM</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5/3/2024 1:52:00 PM</t>
+          <t>5/21/2024 3:26:00 PM</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5/7/2024 9:41:00 AM</t>
+          <t>5/23/2024 9:51:00 AM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5/8/2024 9:03:00 AM</t>
+          <t>5/23/2024 3:26:00 PM</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1460,27 +1460,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ECOCNUSUP00000078714</t>
+          <t>ECO9400111105500369352438</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/3/2024 3:33:00 PM</t>
+          <t>5/21/2024 8:34:00 AM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5/6/2024 9:19:00 AM</t>
+          <t>5/21/2024 3:29:00 PM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5/8/2024 8:47:00 AM</t>
+          <t>5/23/2024 9:51:00 AM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5/8/2024 4:02:00 PM</t>
+          <t>5/23/2024 3:26:00 PM</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1492,27 +1492,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ECOCNUSUP00000153931</t>
+          <t>ECO9400111206239550023670</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5/7/2024 4:55:00 PM</t>
+          <t>5/2/2024 8:29:00 AM</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5/8/2024 3:12:00 PM</t>
+          <t>5/2/2024 2:05:00 PM</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5/10/2024 10:07:00 AM</t>
+          <t>5/6/2024 9:26:00 AM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5/10/2024 3:52:00 PM</t>
+          <t>5/6/2024 1:34:00 PM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1524,27 +1524,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ECOCNUSUP00000351559</t>
+          <t>ECO9400111206239550365275</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/21/2024 8:36:00 AM</t>
+          <t>5/2/2024 8:29:00 AM</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5/21/2024 3:18:00 PM</t>
+          <t>5/2/2024 2:03:00 PM</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5/23/2024 9:51:00 AM</t>
+          <t>5/6/2024 9:26:00 AM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5/23/2024 3:26:00 PM</t>
+          <t>5/6/2024 1:34:00 PM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1556,27 +1556,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ECOD10015108508750</t>
+          <t>ECO9405509105464101665371</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/2/2024 6:09:00 AM</t>
+          <t>5/7/2024 7:42:00 AM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5/2/2024 12:23:00 PM</t>
+          <t>5/7/2024 4:37:00 PM</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5/6/2024 9:26:00 AM</t>
+          <t>5/9/2024 9:14:00 AM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5/6/2024 1:34:00 PM</t>
+          <t>5/9/2024 4:01:00 PM</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1588,27 +1588,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ECOD10015119802993</t>
+          <t>ECO9434609105464072058041</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/3/2024 3:35:00 PM</t>
+          <t>5/2/2024 8:34:00 AM</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5/6/2024 9:18:00 AM</t>
+          <t>5/2/2024 1:11:00 PM</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5/8/2024 8:47:00 AM</t>
+          <t>5/6/2024 9:26:00 AM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5/8/2024 4:02:00 PM</t>
+          <t>5/6/2024 1:34:00 PM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1620,27 +1620,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ECOD10015121413580</t>
+          <t>ECO9449016901643616604515</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/3/2024 3:34:00 PM</t>
+          <t>5/2/2024 6:08:00 AM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5/6/2024 9:16:00 AM</t>
+          <t>5/2/2024 12:31:00 PM</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5/8/2024 8:47:00 AM</t>
+          <t>5/6/2024 9:26:00 AM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5/8/2024 4:02:00 PM</t>
+          <t>5/6/2024 1:34:00 PM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1652,27 +1652,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ECOD10015124222392</t>
+          <t>ECO9500112336814129158364</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/7/2024 7:49:00 AM</t>
+          <t>5/14/2024 10:48:00 AM</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5/7/2024 4:40:00 PM</t>
+          <t>5/16/2024 6:34:00 AM</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5/9/2024 9:14:00 AM</t>
+          <t>5/17/2024 9:41:00 AM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5/9/2024 4:01:00 PM</t>
+          <t>5/17/2024 2:20:00 PM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1684,27 +1684,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ECOD10015150305469</t>
+          <t>ECOCNUSUP00000072428</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/15/2024 11:57:00 AM</t>
+          <t>5/2/2024 6:07:00 AM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5/16/2024 9:17:00 AM</t>
+          <t>5/2/2024 12:33:00 PM</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5/20/2024 10:17:00 AM</t>
+          <t>5/6/2024 9:26:00 AM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5/21/2024 8:35:00 AM</t>
+          <t>5/6/2024 1:34:00 PM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1716,27 +1716,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ECOD10015152498965</t>
+          <t>ECOCNUSUP00000075493</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/14/2024 10:49:00 AM</t>
+          <t>5/3/2024 7:34:00 AM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5/15/2024 1:23:00 PM</t>
+          <t>5/3/2024 1:46:00 PM</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5/17/2024 9:41:00 AM</t>
+          <t>5/7/2024 9:41:00 AM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5/17/2024 2:20:00 PM</t>
+          <t>5/8/2024 9:03:00 AM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1748,27 +1748,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ECOSPX1EG056710577563</t>
+          <t>ECOCNUSUP00000077457</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/7/2024 7:48:00 AM</t>
+          <t>5/3/2024 6:27:00 AM</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>5/7/2024 4:42:00 PM</t>
+          <t>5/3/2024 1:52:00 PM</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5/9/2024 9:14:00 AM</t>
+          <t>5/7/2024 9:41:00 AM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5/9/2024 4:01:00 PM</t>
+          <t>5/8/2024 9:03:00 AM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1780,27 +1780,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ECOSPX1EG056710605609</t>
+          <t>ECOCNUSUP00000078714</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/7/2024 7:47:00 AM</t>
+          <t>5/3/2024 3:33:00 PM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5/7/2024 4:41:00 PM</t>
+          <t>5/6/2024 9:19:00 AM</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5/9/2024 9:14:00 AM</t>
+          <t>5/8/2024 8:47:00 AM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5/9/2024 4:01:00 PM</t>
+          <t>5/8/2024 4:02:00 PM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1812,27 +1812,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ECOTBA312712213146</t>
+          <t>ECOCNUSUP00000153931</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4/22/2024 8:29:00 AM</t>
+          <t>5/7/2024 4:55:00 PM</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4/22/2024 1:01:00 PM</t>
+          <t>5/8/2024 3:12:00 PM</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4/24/2024 8:53:00 AM</t>
+          <t>5/10/2024 10:07:00 AM</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4/24/2024 5:44:00 PM</t>
+          <t>5/10/2024 3:52:00 PM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1844,27 +1844,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ECOTBA312912937355</t>
+          <t>ECOCNUSUP00000351559</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/2/2024 8:28:00 AM</t>
+          <t>5/21/2024 8:36:00 AM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5/2/2024 1:52:00 PM</t>
+          <t>5/21/2024 3:18:00 PM</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5/6/2024 9:26:00 AM</t>
+          <t>5/23/2024 9:51:00 AM</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5/6/2024 1:34:00 PM</t>
+          <t>5/23/2024 3:26:00 PM</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1876,27 +1876,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ECOTBA312932694643</t>
+          <t>ECOD10015108508750</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/7/2024 7:45:00 AM</t>
+          <t>5/2/2024 6:09:00 AM</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>5/7/2024 4:35:00 PM</t>
+          <t>5/2/2024 12:23:00 PM</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5/9/2024 9:14:00 AM</t>
+          <t>5/6/2024 9:26:00 AM</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5/9/2024 4:01:00 PM</t>
+          <t>5/6/2024 1:34:00 PM</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1908,27 +1908,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ECOTBA312933441346</t>
+          <t>ECOD10015119802993</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5/3/2024 4:53:00 PM</t>
+          <t>5/3/2024 3:35:00 PM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5/7/2024 8:08:00 AM</t>
+          <t>5/6/2024 9:18:00 AM</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5/9/2024 1:25:00 PM</t>
+          <t>5/8/2024 8:47:00 AM</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5/9/2024 4:01:00 PM</t>
+          <t>5/8/2024 4:02:00 PM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1940,27 +1940,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ECOTBA312945890366</t>
+          <t>ECOD10015121413580</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5/8/2024 7:40:00 AM</t>
+          <t>5/3/2024 3:34:00 PM</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5/9/2024 7:51:00 AM</t>
+          <t>5/6/2024 9:16:00 AM</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5/13/2024 9:31:00 AM</t>
+          <t>5/8/2024 8:47:00 AM</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5/13/2024 4:51:00 PM</t>
+          <t>5/8/2024 4:02:00 PM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1972,27 +1972,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ECOTBA312958516817</t>
+          <t>ECOD10015124222392</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/3/2024 3:35:00 PM</t>
+          <t>5/7/2024 7:49:00 AM</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5/6/2024 9:19:00 AM</t>
+          <t>5/7/2024 4:40:00 PM</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5/8/2024 8:47:00 AM</t>
+          <t>5/9/2024 9:14:00 AM</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5/8/2024 4:02:00 PM</t>
+          <t>5/9/2024 4:01:00 PM</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2004,27 +2004,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ECOTBA312979153058</t>
+          <t>ECOD10015150305469</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/7/2024 7:42:00 AM</t>
+          <t>5/15/2024 11:57:00 AM</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>5/7/2024 4:38:00 PM</t>
+          <t>5/16/2024 9:17:00 AM</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5/9/2024 9:14:00 AM</t>
+          <t>5/20/2024 10:17:00 AM</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5/9/2024 4:01:00 PM</t>
+          <t>5/21/2024 8:35:00 AM</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2036,27 +2036,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ECOTBA312988185642</t>
+          <t>ECOD10015152498965</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/7/2024 7:45:00 AM</t>
+          <t>5/14/2024 10:49:00 AM</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5/7/2024 4:35:00 PM</t>
+          <t>5/15/2024 1:23:00 PM</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5/9/2024 9:14:00 AM</t>
+          <t>5/17/2024 9:41:00 AM</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5/9/2024 4:01:00 PM</t>
+          <t>5/17/2024 2:20:00 PM</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2068,27 +2068,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ECOTBA312988752924</t>
+          <t>ECOD10015155131249</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/8/2024 7:08:00 AM</t>
+          <t>5/20/2024 7:37:00 AM</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>5/8/2024 3:47:00 PM</t>
+          <t>5/20/2024 2:19:00 PM</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5/13/2024 12:24:00 PM</t>
+          <t>5/22/2024 9:48:00 AM</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5/13/2024 4:51:00 PM</t>
+          <t>5/22/2024 2:20:00 PM</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2100,27 +2100,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ECOTBA313017309748</t>
+          <t>ECOSPX1EG056710547986</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5/10/2024 1:52:00 PM</t>
+          <t>5/22/2024 8:04:00 AM</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>5/10/2024 1:52:00 PM</t>
+          <t>5/22/2024 4:41:00 PM</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5/14/2024 11:42:00 AM</t>
+          <t>5/24/2024 10:02:00 AM</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5/14/2024 2:30:00 PM</t>
+          <t>5/24/2024 4:36:00 PM</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2132,27 +2132,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ECOTBA313028677399</t>
+          <t>ECOSPX1EG056710577563</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5/8/2024 7:45:00 AM</t>
+          <t>5/7/2024 7:48:00 AM</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>5/9/2024 7:34:00 AM</t>
+          <t>5/7/2024 4:42:00 PM</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5/13/2024 12:24:00 PM</t>
+          <t>5/9/2024 9:14:00 AM</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5/13/2024 4:51:00 PM</t>
+          <t>5/9/2024 4:01:00 PM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2164,27 +2164,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ECOTBA313029965814</t>
+          <t>ECOSPX1EG056710605609</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5/8/2024 1:16:00 PM</t>
+          <t>5/7/2024 7:47:00 AM</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>5/9/2024 2:36:00 PM</t>
+          <t>5/7/2024 4:41:00 PM</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5/13/2024 9:31:00 AM</t>
+          <t>5/9/2024 9:14:00 AM</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5/13/2024 4:51:00 PM</t>
+          <t>5/9/2024 4:01:00 PM</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2196,27 +2196,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ECOTBA313033767067</t>
+          <t>ECOSPX1EG056711368137</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5/8/2024 1:12:00 PM</t>
+          <t>5/22/2024 8:03:00 AM</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>5/9/2024 2:38:00 PM</t>
+          <t>5/22/2024 4:53:00 PM</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5/13/2024 9:31:00 AM</t>
+          <t>5/24/2024 10:02:00 AM</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5/13/2024 4:51:00 PM</t>
+          <t>5/24/2024 4:36:00 PM</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2228,27 +2228,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ECOTBA313034653342</t>
+          <t>ECOTBA312712213146</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5/8/2024 1:12:00 PM</t>
+          <t>4/22/2024 8:29:00 AM</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>5/9/2024 2:34:00 PM</t>
+          <t>4/22/2024 1:01:00 PM</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>5/13/2024 9:31:00 AM</t>
+          <t>4/24/2024 8:53:00 AM</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5/13/2024 4:51:00 PM</t>
+          <t>4/24/2024 5:44:00 PM</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2260,27 +2260,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ECOTBA313039081542</t>
+          <t>ECOTBA312912937355</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5/8/2024 1:15:00 PM</t>
+          <t>5/2/2024 8:28:00 AM</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>5/9/2024 2:38:00 PM</t>
+          <t>5/2/2024 1:52:00 PM</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5/13/2024 9:31:00 AM</t>
+          <t>5/6/2024 9:26:00 AM</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5/13/2024 4:51:00 PM</t>
+          <t>5/6/2024 1:34:00 PM</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2292,27 +2292,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ECOTBA313041083901</t>
+          <t>ECOTBA312932694643</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5/8/2024 1:13:00 PM</t>
+          <t>5/7/2024 7:45:00 AM</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5/9/2024 2:33:00 PM</t>
+          <t>5/7/2024 4:35:00 PM</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5/13/2024 9:31:00 AM</t>
+          <t>5/9/2024 9:14:00 AM</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5/13/2024 4:51:00 PM</t>
+          <t>5/9/2024 4:01:00 PM</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2324,27 +2324,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ECOTBA313072106476</t>
+          <t>ECOTBA312933441346</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5/13/2024 2:12:00 PM</t>
+          <t>5/3/2024 4:53:00 PM</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>5/13/2024 2:52:00 PM</t>
+          <t>5/7/2024 8:08:00 AM</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5/15/2024 11:20:00 AM</t>
+          <t>5/9/2024 1:25:00 PM</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5/15/2024 2:35:00 PM</t>
+          <t>5/9/2024 4:01:00 PM</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2356,27 +2356,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ECOTBA313104707244</t>
+          <t>ECOTBA312945890366</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5/15/2024 7:53:00 AM</t>
+          <t>5/8/2024 7:40:00 AM</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>5/15/2024 12:06:00 PM</t>
+          <t>5/9/2024 7:51:00 AM</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5/17/2024 9:41:00 AM</t>
+          <t>5/13/2024 9:31:00 AM</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5/17/2024 2:20:00 PM</t>
+          <t>5/13/2024 4:51:00 PM</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2388,27 +2388,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ECOTBA313112398196</t>
+          <t>ECOTBA312958516817</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5/16/2024 7:47:00 AM</t>
+          <t>5/3/2024 3:35:00 PM</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>5/16/2024 11:29:00 AM</t>
+          <t>5/6/2024 9:19:00 AM</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>5/20/2024 11:43:00 AM</t>
+          <t>5/8/2024 8:47:00 AM</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5/21/2024 8:35:00 AM</t>
+          <t>5/8/2024 4:02:00 PM</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2420,27 +2420,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ECOTBA313117920171</t>
+          <t>ECOTBA312979153058</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5/13/2024 2:11:00 PM</t>
+          <t>5/7/2024 7:42:00 AM</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5/13/2024 2:54:00 PM</t>
+          <t>5/7/2024 4:38:00 PM</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>5/15/2024 11:20:00 AM</t>
+          <t>5/9/2024 9:14:00 AM</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5/15/2024 2:35:00 PM</t>
+          <t>5/9/2024 4:01:00 PM</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2452,27 +2452,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ECOTBA313118515887</t>
+          <t>ECOTBA312988185642</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5/13/2024 2:17:00 PM</t>
+          <t>5/7/2024 7:45:00 AM</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>5/13/2024 2:47:00 PM</t>
+          <t>5/7/2024 4:35:00 PM</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>5/15/2024 11:20:00 AM</t>
+          <t>5/9/2024 9:14:00 AM</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5/15/2024 2:35:00 PM</t>
+          <t>5/9/2024 4:01:00 PM</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2484,27 +2484,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ECOTBA313119082646</t>
+          <t>ECOTBA312988752924</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5/14/2024 6:28:00 AM</t>
+          <t>5/8/2024 7:08:00 AM</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>5/14/2024 1:35:00 PM</t>
+          <t>5/8/2024 3:47:00 PM</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>5/16/2024 8:56:00 AM</t>
+          <t>5/13/2024 12:24:00 PM</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5/16/2024 2:23:00 PM</t>
+          <t>5/13/2024 4:51:00 PM</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2516,27 +2516,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ECOTBA313119793988</t>
+          <t>ECOTBA313017309748</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5/13/2024 2:12:00 PM</t>
+          <t>5/10/2024 1:52:00 PM</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>5/13/2024 2:54:00 PM</t>
+          <t>5/10/2024 1:52:00 PM</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5/15/2024 11:20:00 AM</t>
+          <t>5/14/2024 11:42:00 AM</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5/15/2024 2:35:00 PM</t>
+          <t>5/14/2024 2:30:00 PM</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2548,27 +2548,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ECOTBA313125430233</t>
+          <t>ECOTBA313028677399</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5/15/2024 12:22:00 PM</t>
+          <t>5/8/2024 7:45:00 AM</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5/16/2024 8:20:00 AM</t>
+          <t>5/9/2024 7:34:00 AM</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5/20/2024 10:17:00 AM</t>
+          <t>5/13/2024 12:24:00 PM</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5/21/2024 8:35:00 AM</t>
+          <t>5/13/2024 4:51:00 PM</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2580,27 +2580,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ECOTBA313131004478</t>
+          <t>ECOTBA313029965814</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5/14/2024 10:46:00 AM</t>
+          <t>5/8/2024 1:16:00 PM</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>5/15/2024 1:32:00 PM</t>
+          <t>5/9/2024 2:36:00 PM</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5/17/2024 9:41:00 AM</t>
+          <t>5/13/2024 9:31:00 AM</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>5/17/2024 2:20:00 PM</t>
+          <t>5/13/2024 4:51:00 PM</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2612,27 +2612,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ECOTBA313132906355</t>
+          <t>ECOTBA313033767067</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5/15/2024 7:49:00 AM</t>
+          <t>5/8/2024 1:12:00 PM</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>5/15/2024 10:33:00 AM</t>
+          <t>5/9/2024 2:38:00 PM</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>5/17/2024 10:48:00 AM</t>
+          <t>5/13/2024 9:31:00 AM</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5/17/2024 2:20:00 PM</t>
+          <t>5/13/2024 4:51:00 PM</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2644,27 +2644,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ECOTBA313133191849</t>
+          <t>ECOTBA313034653342</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5/15/2024 7:53:00 AM</t>
+          <t>5/8/2024 1:12:00 PM</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>5/15/2024 10:57:00 AM</t>
+          <t>5/9/2024 2:34:00 PM</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5/17/2024 9:41:00 AM</t>
+          <t>5/13/2024 9:31:00 AM</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>5/17/2024 2:20:00 PM</t>
+          <t>5/13/2024 4:51:00 PM</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2676,27 +2676,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ECOTBA313133710853</t>
+          <t>ECOTBA313039081542</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5/15/2024 7:55:00 AM</t>
+          <t>5/8/2024 1:15:00 PM</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>5/16/2024 7:54:00 AM</t>
+          <t>5/9/2024 2:38:00 PM</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>5/20/2024 10:17:00 AM</t>
+          <t>5/13/2024 9:31:00 AM</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>5/21/2024 8:35:00 AM</t>
+          <t>5/13/2024 4:51:00 PM</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2708,27 +2708,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ECOTBA313143412116</t>
+          <t>ECOTBA313041083901</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5/16/2024 8:41:00 AM</t>
+          <t>5/8/2024 1:13:00 PM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>5/16/2024 9:25:00 AM</t>
+          <t>5/9/2024 2:33:00 PM</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>5/20/2024 11:43:00 AM</t>
+          <t>5/13/2024 9:31:00 AM</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>5/21/2024 8:35:00 AM</t>
+          <t>5/13/2024 4:51:00 PM</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2740,27 +2740,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ECOTBA313148928604</t>
+          <t>ECOTBA313072106476</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5/15/2024 11:50:00 AM</t>
+          <t>5/13/2024 2:12:00 PM</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>5/16/2024 9:16:00 AM</t>
+          <t>5/13/2024 2:52:00 PM</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>5/20/2024 10:17:00 AM</t>
+          <t>5/15/2024 11:20:00 AM</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>5/21/2024 8:35:00 AM</t>
+          <t>5/15/2024 2:35:00 PM</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2772,27 +2772,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ECOTBA313161941403</t>
+          <t>ECOTBA313104707244</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5/15/2024 12:01:00 PM</t>
+          <t>5/15/2024 7:53:00 AM</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>5/16/2024 9:08:00 AM</t>
+          <t>5/15/2024 12:06:00 PM</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>5/20/2024 10:17:00 AM</t>
+          <t>5/17/2024 9:41:00 AM</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>5/21/2024 8:35:00 AM</t>
+          <t>5/17/2024 2:20:00 PM</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2804,22 +2804,22 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ECOTBA313162361947</t>
+          <t>ECOTBA313112398196</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>5/16/2024 8:40:00 AM</t>
+          <t>5/16/2024 7:47:00 AM</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>5/16/2024 9:28:00 AM</t>
+          <t>5/16/2024 11:29:00 AM</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>5/20/2024 10:17:00 AM</t>
+          <t>5/20/2024 11:43:00 AM</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2836,27 +2836,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ECOTBA313164054776</t>
+          <t>ECOTBA313117920171</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5/16/2024 8:40:00 AM</t>
+          <t>5/13/2024 2:11:00 PM</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>5/16/2024 9:26:00 AM</t>
+          <t>5/13/2024 2:54:00 PM</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>5/20/2024 11:43:00 AM</t>
+          <t>5/15/2024 11:20:00 AM</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>5/21/2024 8:35:00 AM</t>
+          <t>5/15/2024 2:35:00 PM</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2868,27 +2868,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ECOTBA313164740711</t>
+          <t>ECOTBA313118515887</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5/15/2024 12:44:00 PM</t>
+          <t>5/13/2024 2:17:00 PM</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>5/16/2024 8:31:00 AM</t>
+          <t>5/13/2024 2:47:00 PM</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>5/20/2024 10:17:00 AM</t>
+          <t>5/15/2024 11:20:00 AM</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>5/21/2024 8:35:00 AM</t>
+          <t>5/15/2024 2:35:00 PM</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2900,27 +2900,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ECOTBA313165445866</t>
+          <t>ECOTBA313119082646</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5/17/2024 8:07:00 AM</t>
+          <t>5/14/2024 6:28:00 AM</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>5/17/2024 12:45:00 PM</t>
+          <t>5/14/2024 1:35:00 PM</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5/21/2024 9:42:00 AM</t>
+          <t>5/16/2024 8:56:00 AM</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>5/21/2024 5:27:00 PM</t>
+          <t>5/16/2024 2:23:00 PM</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2932,27 +2932,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ECOTBA313172643294</t>
+          <t>ECOTBA313119793988</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>5/16/2024 8:41:00 AM</t>
+          <t>5/13/2024 2:12:00 PM</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>5/16/2024 9:21:00 AM</t>
+          <t>5/13/2024 2:54:00 PM</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>5/20/2024 10:17:00 AM</t>
+          <t>5/15/2024 11:20:00 AM</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>5/21/2024 8:35:00 AM</t>
+          <t>5/15/2024 2:35:00 PM</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2964,27 +2964,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ECOTBA313176853531</t>
+          <t>ECOTBA313125430233</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>5/21/2024 11:04:00 AM</t>
+          <t>5/15/2024 12:22:00 PM</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>5/22/2024 6:19:00 AM</t>
+          <t>5/16/2024 8:20:00 AM</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>5/23/2024 9:51:00 AM</t>
+          <t>5/20/2024 10:17:00 AM</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>5/23/2024 3:26:00 PM</t>
+          <t>5/21/2024 8:35:00 AM</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2996,27 +2996,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ECOTBA313177035475</t>
+          <t>ECOTBA313131004478</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>5/20/2024 7:38:00 AM</t>
+          <t>5/14/2024 10:46:00 AM</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>5/20/2024 2:22:00 PM</t>
+          <t>5/15/2024 1:32:00 PM</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>5/22/2024 9:48:00 AM</t>
+          <t>5/17/2024 9:41:00 AM</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>5/22/2024 2:20:00 PM</t>
+          <t>5/17/2024 2:20:00 PM</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3028,27 +3028,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ECOTBA313180185590</t>
+          <t>ECOTBA313132906355</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>5/21/2024 9:59:00 AM</t>
+          <t>5/15/2024 7:49:00 AM</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>5/22/2024 6:15:00 AM</t>
+          <t>5/15/2024 10:33:00 AM</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>5/23/2024 9:51:00 AM</t>
+          <t>5/17/2024 10:48:00 AM</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>5/23/2024 3:26:00 PM</t>
+          <t>5/17/2024 2:20:00 PM</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3060,27 +3060,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ECOTBA313190262114</t>
+          <t>ECOTBA313133191849</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>5/21/2024 8:29:00 AM</t>
+          <t>5/15/2024 7:53:00 AM</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>5/21/2024 3:29:00 PM</t>
+          <t>5/15/2024 10:57:00 AM</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>5/23/2024 9:51:00 AM</t>
+          <t>5/17/2024 9:41:00 AM</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>5/23/2024 3:26:00 PM</t>
+          <t>5/17/2024 2:20:00 PM</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3092,27 +3092,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ECOTBA313190868508</t>
+          <t>ECOTBA313133710853</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>5/17/2024 8:14:00 AM</t>
+          <t>5/15/2024 7:55:00 AM</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>5/17/2024 1:48:00 PM</t>
+          <t>5/16/2024 7:54:00 AM</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>5/21/2024 9:42:00 AM</t>
+          <t>5/20/2024 10:17:00 AM</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>5/21/2024 5:27:00 PM</t>
+          <t>5/21/2024 8:35:00 AM</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3124,27 +3124,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ECOTBA313203306875</t>
+          <t>ECOTBA313143412116</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>5/21/2024 8:30:00 AM</t>
+          <t>5/16/2024 8:41:00 AM</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>5/21/2024 3:21:00 PM</t>
+          <t>5/16/2024 9:25:00 AM</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>5/23/2024 9:51:00 AM</t>
+          <t>5/20/2024 11:43:00 AM</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>5/23/2024 3:26:00 PM</t>
+          <t>5/21/2024 8:35:00 AM</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3156,27 +3156,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ECOTBA313206234105</t>
+          <t>ECOTBA313148928604</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>5/17/2024 8:07:00 AM</t>
+          <t>5/15/2024 11:50:00 AM</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>5/17/2024 12:43:00 PM</t>
+          <t>5/16/2024 9:16:00 AM</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5/21/2024 9:42:00 AM</t>
+          <t>5/20/2024 10:17:00 AM</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>5/21/2024 5:27:00 PM</t>
+          <t>5/21/2024 8:35:00 AM</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3188,27 +3188,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ECOTBA313210616249</t>
+          <t>ECOTBA313161941403</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>5/20/2024 7:54:00 AM</t>
+          <t>5/15/2024 12:01:00 PM</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>5/21/2024 6:20:00 AM</t>
+          <t>5/16/2024 9:08:00 AM</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>5/22/2024 9:48:00 AM</t>
+          <t>5/20/2024 10:17:00 AM</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>5/22/2024 2:20:00 PM</t>
+          <t>5/21/2024 8:35:00 AM</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3220,27 +3220,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ECOTBA313227645566</t>
+          <t>ECOTBA313162361947</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>5/21/2024 8:29:00 AM</t>
+          <t>5/16/2024 8:40:00 AM</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>5/21/2024 3:28:00 PM</t>
+          <t>5/16/2024 9:28:00 AM</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>5/23/2024 9:51:00 AM</t>
+          <t>5/20/2024 10:17:00 AM</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>5/23/2024 3:26:00 PM</t>
+          <t>5/21/2024 8:35:00 AM</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3252,27 +3252,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ECOTBA313229198011</t>
+          <t>ECOTBA313164054776</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>5/21/2024 8:29:00 AM</t>
+          <t>5/16/2024 8:40:00 AM</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>5/21/2024 3:28:00 PM</t>
+          <t>5/16/2024 9:26:00 AM</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>5/23/2024 9:51:00 AM</t>
+          <t>5/20/2024 11:43:00 AM</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>5/23/2024 3:26:00 PM</t>
+          <t>5/21/2024 8:35:00 AM</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3284,27 +3284,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ECOTBA313236905286</t>
+          <t>ECOTBA313164740711</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>5/21/2024 8:37:00 AM</t>
+          <t>5/15/2024 12:44:00 PM</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>5/21/2024 3:17:00 PM</t>
+          <t>5/16/2024 8:31:00 AM</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>5/23/2024 9:51:00 AM</t>
+          <t>5/20/2024 10:17:00 AM</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>5/23/2024 3:26:00 PM</t>
+          <t>5/21/2024 8:35:00 AM</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3316,27 +3316,27 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ECOTBA313237570675</t>
+          <t>ECOTBA313165445866</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>5/21/2024 8:38:00 AM</t>
+          <t>5/17/2024 8:07:00 AM</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>5/21/2024 3:21:00 PM</t>
+          <t>5/17/2024 12:45:00 PM</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>5/23/2024 9:51:00 AM</t>
+          <t>5/21/2024 9:42:00 AM</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>5/23/2024 3:26:00 PM</t>
+          <t>5/21/2024 5:27:00 PM</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3348,27 +3348,27 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ECOTBA313247712261</t>
+          <t>ECOTBA313172643294</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>5/21/2024 9:55:00 AM</t>
+          <t>5/16/2024 8:41:00 AM</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>5/21/2024 4:47:00 PM</t>
+          <t>5/16/2024 9:21:00 AM</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>5/23/2024 9:51:00 AM</t>
+          <t>5/20/2024 10:17:00 AM</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>5/23/2024 3:26:00 PM</t>
+          <t>5/21/2024 8:35:00 AM</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3380,27 +3380,27 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ECOUUS0462519483284</t>
+          <t>ECOTBA313176853531</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>5/1/2024 5:58:00 PM</t>
+          <t>5/21/2024 11:04:00 AM</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>5/2/2024 12:20:00 PM</t>
+          <t>5/22/2024 6:19:00 AM</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>5/6/2024 9:26:00 AM</t>
+          <t>5/23/2024 9:51:00 AM</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>5/6/2024 1:34:00 PM</t>
+          <t>5/23/2024 3:26:00 PM</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3412,27 +3412,27 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ECOUUSC000001280008</t>
+          <t>ECOTBA313177035475</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>5/2/2024 8:34:00 AM</t>
+          <t>5/20/2024 7:38:00 AM</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>5/2/2024 2:08:00 PM</t>
+          <t>5/20/2024 2:22:00 PM</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>5/6/2024 12:39:00 PM</t>
+          <t>5/22/2024 9:48:00 AM</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>5/6/2024 1:34:00 PM</t>
+          <t>5/22/2024 2:20:00 PM</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3444,27 +3444,27 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ECOUUSC000001280537</t>
+          <t>ECOTBA313180185590</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>4/30/2024 8:42:00 AM</t>
+          <t>5/21/2024 9:59:00 AM</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>4/30/2024 12:58:00 PM</t>
+          <t>5/22/2024 6:15:00 AM</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>5/2/2024 10:11:00 AM</t>
+          <t>5/23/2024 9:51:00 AM</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>5/2/2024 5:36:00 PM</t>
+          <t>5/23/2024 3:26:00 PM</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3476,30 +3476,510 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
+          <t>ECOTBA313190262114</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>5/21/2024 8:29:00 AM</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>5/21/2024 3:29:00 PM</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5/23/2024 9:51:00 AM</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>5/23/2024 3:26:00 PM</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ECOTBA313190868508</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>5/17/2024 8:14:00 AM</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>5/17/2024 1:48:00 PM</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5/21/2024 9:42:00 AM</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>5/21/2024 5:27:00 PM</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ECOTBA313203306875</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>5/21/2024 8:30:00 AM</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>5/21/2024 3:21:00 PM</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5/23/2024 9:51:00 AM</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>5/23/2024 3:26:00 PM</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ECOTBA313206234105</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>5/17/2024 8:07:00 AM</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>5/17/2024 12:43:00 PM</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>5/21/2024 9:42:00 AM</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>5/21/2024 5:27:00 PM</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ECOTBA313210616249</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>5/20/2024 7:54:00 AM</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>5/21/2024 6:20:00 AM</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>5/22/2024 9:48:00 AM</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>5/22/2024 2:20:00 PM</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ECOTBA313227645566</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>5/21/2024 8:29:00 AM</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>5/21/2024 3:28:00 PM</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>5/23/2024 9:51:00 AM</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>5/23/2024 3:26:00 PM</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ECOTBA313229198011</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>5/21/2024 8:29:00 AM</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>5/21/2024 3:28:00 PM</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5/23/2024 9:51:00 AM</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>5/23/2024 3:26:00 PM</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ECOTBA313236905286</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>5/21/2024 8:37:00 AM</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>5/21/2024 3:17:00 PM</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5/23/2024 9:51:00 AM</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>5/23/2024 3:26:00 PM</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ECOTBA313237570675</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>5/21/2024 8:38:00 AM</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>5/21/2024 3:21:00 PM</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>5/23/2024 9:51:00 AM</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>5/23/2024 3:26:00 PM</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ECOTBA313247712261</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>5/21/2024 9:55:00 AM</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>5/21/2024 4:47:00 PM</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>5/23/2024 9:51:00 AM</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>5/23/2024 3:26:00 PM</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ECOTBA313254555602</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>5/21/2024 8:37:00 AM</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>5/21/2024 3:17:00 PM</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>5/23/2024 9:51:00 AM</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>5/23/2024 3:26:00 PM</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ECOTBA313254576489</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>5/22/2024 8:03:00 AM</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>5/22/2024 4:54:00 PM</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>5/24/2024 10:02:00 AM</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>5/24/2024 4:36:00 PM</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ECOUUS0462519483284</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>5/1/2024 5:58:00 PM</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>5/2/2024 12:20:00 PM</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>5/6/2024 9:26:00 AM</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>5/6/2024 1:34:00 PM</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ECOUUSC000001280008</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>5/2/2024 8:34:00 AM</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>5/2/2024 2:08:00 PM</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>5/6/2024 12:39:00 PM</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>5/6/2024 1:34:00 PM</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ECOUUSC000001280537</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>4/30/2024 8:42:00 AM</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>4/30/2024 12:58:00 PM</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5/2/2024 10:11:00 AM</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>5/2/2024 5:36:00 PM</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Procesando en Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
           <t>ECOUUSC000001378327</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>5/8/2024 6:45:00 AM</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>5/8/2024 2:08:00 PM</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>5/10/2024 10:07:00 AM</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>5/10/2024 3:52:00 PM</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>Procesando en Costa Rica</t>
         </is>

--- a/tracking_results.xlsx
+++ b/tracking_results.xlsx
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1221589674190003317800273943286926</t>
+          <t>ECO 1221589674190003317800273943286926</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -500,7 +500,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1ZG2C823YW21934816</t>
+          <t>ECO 1ZG2C823YW21934816</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1ZH48K011216150975</t>
+          <t>ECO 1ZH48K011216150975</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -564,7 +564,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1ZH8G1320326733075</t>
+          <t>ECO 1ZH8G1320326733075</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>274826477284</t>
+          <t>ECO 274826477284</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4160721574</t>
+          <t>ECO 4160721574</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -660,7 +660,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7978600980</t>
+          <t>ECO 7978600980</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -692,7 +692,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>92001903281679064779860923</t>
+          <t>ECO 92001903281679064779860923</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9212490352020033948488</t>
+          <t>ECO 9212490352020033948488</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -756,7 +756,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9214490347678765595249</t>
+          <t>ECO 9214490347678765595249</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -788,7 +788,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9214490347678772809506</t>
+          <t>ECO 9214490347678772809506</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>9214490352020123005198</t>
+          <t>ECO 9214490352020123005198</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -852,7 +852,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>9214490352020135725374</t>
+          <t>ECO 9214490352020135725374</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -884,7 +884,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>9235990352020028946815</t>
+          <t>ECO 9235990352020028946815</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>9235990352020115932905</t>
+          <t>ECO 9235990352020115932905</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -948,7 +948,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>9235990352020117501246</t>
+          <t>ECO 9235990352020117501246</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -980,7 +980,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>9235990352020119146636</t>
+          <t>ECO 9235990352020119146636</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>9235990352020124410869</t>
+          <t>ECO 9235990352020124410869</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1044,7 +1044,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9235990352020125067550</t>
+          <t>ECO 9235990352020125067550</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1076,7 +1076,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9235990352020126302230</t>
+          <t>ECO 9235990352020126302230</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9235990352020129287732</t>
+          <t>ECO 9235990352020129287732</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1140,7 +1140,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>9235990352020132281369</t>
+          <t>ECO 9235990352020132281369</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>9235990352020133715535</t>
+          <t>ECO 9235990352020133715535</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9235990352020135794194</t>
+          <t>ECO 9235990352020135794194</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1236,7 +1236,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9235990352020320051002</t>
+          <t>ECO 9235990352020320051002</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1268,7 +1268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9235990352020327203305</t>
+          <t>ECO 9235990352020327203305</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>92395903032501055150121144</t>
+          <t>ECO 92395903032501055150121144</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1332,7 +1332,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>9261290252835977610185</t>
+          <t>ECO 9261290252835977610185</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>9261290277955802342605</t>
+          <t>ECO 9261290277955802342605</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>92612903269849100006941683</t>
+          <t>ECO 92612903269849100006941683</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>9262690352020409029284</t>
+          <t>ECO 9262690352020409029284</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1460,7 +1460,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9262690352020410590230</t>
+          <t>ECO 9262690352020410590230</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9262690352020410601622</t>
+          <t>ECO 9262690352020410601622</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1524,7 +1524,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9262690352020410889167</t>
+          <t>ECO 9262690352020410889167</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1556,7 +1556,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>9262690352020412934964</t>
+          <t>ECO 9262690352020412934964</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9262690352020413856289</t>
+          <t>ECO 9262690352020413856289</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1620,7 +1620,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>9262690352020414514928</t>
+          <t>ECO 9262690352020414514928</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1652,7 +1652,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9262690352020414800212</t>
+          <t>ECO 9262690352020414800212</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9262690352020415569859</t>
+          <t>ECO 9262690352020415569859</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1716,7 +1716,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>9262690352020415790376</t>
+          <t>ECO 9262690352020415790376</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1748,7 +1748,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>9262690352020416984705</t>
+          <t>ECO 9262690352020416984705</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>9262690352020417002859</t>
+          <t>ECO 9262690352020417002859</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1812,7 +1812,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>9262690352020417222028</t>
+          <t>ECO 9262690352020417222028</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1844,7 +1844,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>9262690352020417557038</t>
+          <t>ECO 9262690352020417557038</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>9262690352020417669779</t>
+          <t>ECO 9262690352020417669779</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>9300110570801331378413</t>
+          <t>ECO 9300110570801331378413</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1940,7 +1940,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>9300120111411636749513</t>
+          <t>ECO 9300120111411636749513</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>9361289677030699109568</t>
+          <t>ECO 9361289677030699109568</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2004,7 +2004,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>9361289677030803034106</t>
+          <t>ECO 9361289677030803034106</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2036,7 +2036,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>9361289677031943867371</t>
+          <t>ECO 9361289677031943867371</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>9400109105465097160908</t>
+          <t>ECO 9400109105465097160908</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2100,7 +2100,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>9400109105465135948734</t>
+          <t>ECO 9400109105465135948734</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2132,7 +2132,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>9400111105500349616390</t>
+          <t>ECO 9400111105500349616390</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>9400111105500369352438</t>
+          <t>ECO 9400111105500369352438</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2196,7 +2196,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>9400111206239550023670</t>
+          <t>ECO 9400111206239550023670</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2228,7 +2228,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>9400111206239550365275</t>
+          <t>ECO 9400111206239550365275</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>9405509105464101665371</t>
+          <t>ECO 9405509105464101665371</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2292,7 +2292,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>9434609105464072058041</t>
+          <t>ECO 9434609105464072058041</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2324,7 +2324,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>9434616902560789744246</t>
+          <t>ECO 9434616902560789744246</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2356,7 +2356,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>9449016901643616604515</t>
+          <t>ECO 9449016901643616604515</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2388,7 +2388,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>9500112336814129158364</t>
+          <t>ECO 9500112336814129158364</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2420,7 +2420,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CNUSUP00000072428</t>
+          <t>ECO CNUSUP00000072428</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CNUSUP00000075493</t>
+          <t>ECO CNUSUP00000075493</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2484,7 +2484,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CNUSUP00000077457</t>
+          <t>ECO CNUSUP00000077457</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2516,7 +2516,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CNUSUP00000078714</t>
+          <t>ECO CNUSUP00000078714</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CNUSUP00000153931</t>
+          <t>ECO CNUSUP00000153931</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2580,7 +2580,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CNUSUP00000351559</t>
+          <t>ECO CNUSUP00000351559</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2612,7 +2612,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CNUSUP00000645674</t>
+          <t>ECO CNUSUP00000645674</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2644,7 +2644,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>D10015108508750</t>
+          <t>ECO D10015108508750</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2676,7 +2676,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>D10015119802993</t>
+          <t>ECO D10015119802993</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2708,7 +2708,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>D10015121413580</t>
+          <t>ECO D10015121413580</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>D10015124222392</t>
+          <t>ECO D10015124222392</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2772,7 +2772,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>D10015150305469</t>
+          <t>ECO D10015150305469</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2804,7 +2804,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>D10015152498965</t>
+          <t>ECO D10015152498965</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>D10015155131249</t>
+          <t>ECO D10015155131249</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2868,7 +2868,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>D10015185043654</t>
+          <t>ECO D10015185043654</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2900,7 +2900,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>D10015194122879</t>
+          <t>ECO D10015194122879</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2932,7 +2932,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>D10015196928192</t>
+          <t>ECO D10015196928192</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2964,7 +2964,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>D10015202757427</t>
+          <t>ECO D10015202757427</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>D10015221230496</t>
+          <t>ECO D10015221230496</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>KD13751006577846</t>
+          <t>ECO KD13751006577846</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3060,7 +3060,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SPX1EG056710547986</t>
+          <t>ECO SPX1EG056710547986</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3092,7 +3092,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SPX1EG056710577563</t>
+          <t>ECO SPX1EG056710577563</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3124,7 +3124,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SPX1EG056710605609</t>
+          <t>ECO SPX1EG056710605609</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3156,7 +3156,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SPX1EG056711368137</t>
+          <t>ECO SPX1EG056711368137</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3188,7 +3188,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SPX1EG056711547783</t>
+          <t>ECO SPX1EG056711547783</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3220,7 +3220,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SPX1EG056711681260</t>
+          <t>ECO SPX1EG056711681260</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3252,7 +3252,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SPX1EG056711755515</t>
+          <t>ECO SPX1EG056711755515</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3284,7 +3284,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SPX1EG056712147703</t>
+          <t>ECO SPX1EG056712147703</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3316,7 +3316,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TBA312712213146</t>
+          <t>ECO TBA312712213146</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3348,7 +3348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>TBA312912937355</t>
+          <t>ECO TBA312912937355</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3380,7 +3380,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>TBA312932694643</t>
+          <t>ECO TBA312932694643</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3412,7 +3412,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>TBA312933441346</t>
+          <t>ECO TBA312933441346</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3444,7 +3444,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>TBA312945890366</t>
+          <t>ECO TBA312945890366</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3476,7 +3476,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>TBA312958516817</t>
+          <t>ECO TBA312958516817</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3508,7 +3508,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TBA312979153058</t>
+          <t>ECO TBA312979153058</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3540,7 +3540,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>TBA312988185642</t>
+          <t>ECO TBA312988185642</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3572,7 +3572,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TBA312988752924</t>
+          <t>ECO TBA312988752924</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3604,7 +3604,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>TBA313017309748</t>
+          <t>ECO TBA313017309748</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3636,7 +3636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>TBA313028677399</t>
+          <t>ECO TBA313028677399</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3668,7 +3668,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>TBA313029965814</t>
+          <t>ECO TBA313029965814</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3700,7 +3700,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>TBA313033767067</t>
+          <t>ECO TBA313033767067</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3732,7 +3732,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>TBA313034653342</t>
+          <t>ECO TBA313034653342</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3764,7 +3764,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>TBA313039081542</t>
+          <t>ECO TBA313039081542</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3796,7 +3796,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>TBA313041083901</t>
+          <t>ECO TBA313041083901</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3828,7 +3828,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>TBA313072106476</t>
+          <t>ECO TBA313072106476</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3860,7 +3860,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>TBA313104707244</t>
+          <t>ECO TBA313104707244</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3892,7 +3892,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>TBA313112398196</t>
+          <t>ECO TBA313112398196</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3924,7 +3924,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TBA313117920171</t>
+          <t>ECO TBA313117920171</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3956,7 +3956,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>TBA313118515887</t>
+          <t>ECO TBA313118515887</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3988,7 +3988,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>TBA313119082646</t>
+          <t>ECO TBA313119082646</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4020,7 +4020,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TBA313119793988</t>
+          <t>ECO TBA313119793988</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4052,7 +4052,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>TBA313125430233</t>
+          <t>ECO TBA313125430233</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4084,7 +4084,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TBA313131004478</t>
+          <t>ECO TBA313131004478</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4116,7 +4116,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TBA313132906355</t>
+          <t>ECO TBA313132906355</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4148,7 +4148,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>TBA313133191849</t>
+          <t>ECO TBA313133191849</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4180,7 +4180,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TBA313133710853</t>
+          <t>ECO TBA313133710853</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4212,7 +4212,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TBA313142274237</t>
+          <t>ECO TBA313142274237</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4244,7 +4244,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>TBA313143412116</t>
+          <t>ECO TBA313143412116</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4276,7 +4276,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TBA313148928604</t>
+          <t>ECO TBA313148928604</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4308,7 +4308,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>TBA313149072019</t>
+          <t>ECO TBA313149072019</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4340,7 +4340,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>TBA313161941403</t>
+          <t>ECO TBA313161941403</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4372,7 +4372,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>TBA313162361947</t>
+          <t>ECO TBA313162361947</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4404,7 +4404,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TBA313164054776</t>
+          <t>ECO TBA313164054776</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4436,7 +4436,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>TBA313164740711</t>
+          <t>ECO TBA313164740711</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4468,7 +4468,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>TBA313165445866</t>
+          <t>ECO TBA313165445866</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4500,7 +4500,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>TBA313172643294</t>
+          <t>ECO TBA313172643294</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4532,7 +4532,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>TBA313176853531</t>
+          <t>ECO TBA313176853531</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4564,7 +4564,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>TBA313177035475</t>
+          <t>ECO TBA313177035475</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4596,7 +4596,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>TBA313180185590</t>
+          <t>ECO TBA313180185590</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4628,7 +4628,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>TBA313188634180</t>
+          <t>ECO TBA313188634180</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4660,7 +4660,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>TBA313190262114</t>
+          <t>ECO TBA313190262114</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4692,7 +4692,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>TBA313190868508</t>
+          <t>ECO TBA313190868508</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4724,7 +4724,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>TBA313203306875</t>
+          <t>ECO TBA313203306875</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4756,7 +4756,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>TBA313206234105</t>
+          <t>ECO TBA313206234105</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4788,7 +4788,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>TBA313207637868</t>
+          <t>ECO TBA313207637868</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4820,7 +4820,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>TBA313210616249</t>
+          <t>ECO TBA313210616249</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4852,7 +4852,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>TBA313227645566</t>
+          <t>ECO TBA313227645566</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4884,7 +4884,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TBA313229198011</t>
+          <t>ECO TBA313229198011</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4916,7 +4916,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>TBA313236905286</t>
+          <t>ECO TBA313236905286</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4948,7 +4948,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>TBA313237570675</t>
+          <t>ECO TBA313237570675</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4980,7 +4980,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>TBA313247712261</t>
+          <t>ECO TBA313247712261</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5012,7 +5012,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>TBA313254555602</t>
+          <t>ECO TBA313254555602</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5044,7 +5044,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>TBA313254576489</t>
+          <t>ECO TBA313254576489</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5076,7 +5076,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>TBA313276271912</t>
+          <t>ECO TBA313276271912</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5108,7 +5108,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>TBA313294234112</t>
+          <t>ECO TBA313294234112</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5140,7 +5140,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TBA313325466441</t>
+          <t>ECO TBA313325466441</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5172,7 +5172,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>TBA313329518773</t>
+          <t>ECO TBA313329518773</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5204,7 +5204,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>TBA313342161994</t>
+          <t>ECO TBA313342161994</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5236,7 +5236,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>TBA313343361203</t>
+          <t>ECO TBA313343361203</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5268,7 +5268,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>TBA313346548879</t>
+          <t>ECO TBA313346548879</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5300,7 +5300,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>TBA313347550622</t>
+          <t>ECO TBA313347550622</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5332,7 +5332,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>TBA313359442765</t>
+          <t>ECO TBA313359442765</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5364,7 +5364,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>TBA313367777749</t>
+          <t>ECO TBA313367777749</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5396,7 +5396,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>TBA313386511383</t>
+          <t>ECO TBA313386511383</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5428,7 +5428,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>TBA313398381010</t>
+          <t>ECO TBA313398381010</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5460,7 +5460,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>TBA313428161837</t>
+          <t>ECO TBA313428161837</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5492,7 +5492,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>TBA313476562577</t>
+          <t>ECO TBA313476562577</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5524,7 +5524,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>TBA313511672898</t>
+          <t>ECO TBA313511672898</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5556,7 +5556,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>TBA313519690635</t>
+          <t>ECO TBA313519690635</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5588,7 +5588,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>TBA313533248793</t>
+          <t>ECO TBA313533248793</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5620,7 +5620,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>TBA313535453809</t>
+          <t>ECO TBA313535453809</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5652,7 +5652,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>TBA313542138497</t>
+          <t>ECO TBA313542138497</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5684,7 +5684,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>TBA313595296709</t>
+          <t>ECO TBA313595296709</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5716,7 +5716,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>TBA313595867461</t>
+          <t>ECO TBA313595867461</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5748,7 +5748,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>TBA313602993353</t>
+          <t>ECO TBA313602993353</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5780,7 +5780,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>TBA313609330794</t>
+          <t>ECO TBA313609330794</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5812,7 +5812,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>TBA313622393472</t>
+          <t>ECO TBA313622393472</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5844,7 +5844,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>TBA313627084385</t>
+          <t>ECO TBA313627084385</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5876,7 +5876,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>TBA313628176585</t>
+          <t>ECO TBA313628176585</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5908,7 +5908,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>TBA313653501992</t>
+          <t>ECO TBA313653501992</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5940,7 +5940,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>TBA313672316384</t>
+          <t>ECO TBA313672316384</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5972,7 +5972,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>TBA313702003761</t>
+          <t>ECO TBA313702003761</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -6004,7 +6004,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>UUS0462519483284</t>
+          <t>ECO UUS0462519483284</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6036,7 +6036,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>UUS45E0450257355641</t>
+          <t>ECO UUS45E0450257355641</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6068,7 +6068,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>UUSC000001280008</t>
+          <t>ECO UUSC000001280008</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6100,7 +6100,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>UUSC000001280537</t>
+          <t>ECO UUSC000001280537</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -6132,7 +6132,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>UUSC000001378327</t>
+          <t>ECO UUSC000001378327</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
